--- a/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BCX3\Desktop\mail\Translation folder\Translation Documents\Documents ENG\Finished\1.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7656" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -2537,24 +2532,22 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.8984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="74.875" style="22" customWidth="1"/>
     <col min="5" max="5" width="57" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2576,7 +2569,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
         <v>123</v>
@@ -2587,7 +2580,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2596,7 +2589,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -2617,7 +2610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="11">
         <v>1</v>
@@ -2638,7 +2631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="11">
         <v>2</v>
@@ -2659,7 +2652,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="11">
         <v>3</v>
@@ -2680,7 +2673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2701,7 +2694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -2722,7 +2715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="11">
         <v>6</v>
@@ -2743,7 +2736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="11">
         <v>7</v>
@@ -2764,7 +2757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="11">
         <v>8</v>
@@ -2785,7 +2778,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="21"/>
@@ -2793,7 +2786,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
         <v>113</v>
       </c>
@@ -2803,7 +2796,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>98</v>
       </c>
@@ -2813,7 +2806,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="21"/>
@@ -2821,12 +2814,12 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="11">
         <v>1</v>
       </c>
@@ -2854,7 +2847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B24" s="11">
         <v>3</v>
       </c>
@@ -2882,7 +2875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B26" s="11">
         <v>5</v>
       </c>
@@ -2910,7 +2903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B27" s="11">
         <v>6</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B28" s="11">
         <v>7</v>
       </c>
@@ -2938,7 +2931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <v>8</v>
       </c>
@@ -2952,7 +2945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
         <v>9</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
         <v>10</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
         <v>11</v>
       </c>
@@ -2994,7 +2987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="11">
         <v>12</v>
       </c>
@@ -3008,7 +3001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B34" s="11">
         <v>13</v>
       </c>
@@ -3022,7 +3015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="11">
         <v>14</v>
       </c>
@@ -3036,7 +3029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="11">
         <v>15</v>
       </c>
@@ -3050,12 +3043,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
@@ -3084,14 +3077,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +3132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3147,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3155,7 +3148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3187,7 +3180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3195,7 +3188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -3203,7 +3196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -3211,7 +3204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3243,7 +3236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3267,16 +3260,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3290,7 +3283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -3304,7 +3297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -3318,7 +3311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3332,7 +3325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>

--- a/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BCX3\Desktop\mail\Translation folder\Translation Documents\Documents ENG\Finished\1.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7656" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9465" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -2541,20 +2536,20 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.8984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="74.875" style="22" customWidth="1"/>
     <col min="5" max="5" width="57" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2576,7 +2571,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
         <v>123</v>
@@ -2587,7 +2582,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2596,7 +2591,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -2617,7 +2612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="11">
         <v>1</v>
@@ -2638,7 +2633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="11">
         <v>2</v>
@@ -2659,7 +2654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="11">
         <v>3</v>
@@ -2680,7 +2675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2701,7 +2696,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -2722,7 +2717,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="11">
         <v>6</v>
@@ -2743,7 +2738,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="11">
         <v>7</v>
@@ -2764,7 +2759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="11">
         <v>8</v>
@@ -2785,7 +2780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="21"/>
@@ -2793,7 +2788,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
         <v>113</v>
       </c>
@@ -2803,7 +2798,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>98</v>
       </c>
@@ -2813,7 +2808,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="21"/>
@@ -2821,12 +2816,12 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="11">
         <v>1</v>
       </c>
@@ -2854,7 +2849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B24" s="11">
         <v>3</v>
       </c>
@@ -2882,7 +2877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B26" s="11">
         <v>5</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B27" s="11">
         <v>6</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B28" s="11">
         <v>7</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <v>8</v>
       </c>
@@ -2952,7 +2947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
         <v>9</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
         <v>10</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
         <v>11</v>
       </c>
@@ -2994,7 +2989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="11">
         <v>12</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B34" s="11">
         <v>13</v>
       </c>
@@ -3022,7 +3017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="11">
         <v>14</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="11">
         <v>15</v>
       </c>
@@ -3050,12 +3045,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
@@ -3084,14 +3079,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +3134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3147,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3155,7 +3150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3195,7 +3190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -3203,7 +3198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -3211,7 +3206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3243,7 +3238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3267,16 +3262,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3290,7 +3285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -3304,7 +3299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3332,7 +3327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>

--- a/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/var/log/httpd/exastro-it-automation-*.log</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -591,6 +587,10 @@
   </si>
   <si>
     <t>The logs related to the Exastro IT Automation output messages are described below.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/var/log/httpd/exastro-it-automation-*_log</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2532,9 +2532,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2551,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2559,7 +2557,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2574,7 +2572,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="19"/>
@@ -2597,19 +2595,19 @@
         <v>59</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2624,13 +2622,13 @@
         <v>60</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2642,16 +2640,16 @@
         <v>58</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2666,13 +2664,13 @@
         <v>57</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2684,16 +2682,16 @@
         <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.4">
@@ -2705,16 +2703,16 @@
         <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2726,16 +2724,16 @@
         <v>56</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2747,16 +2745,16 @@
         <v>56</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2768,16 +2766,16 @@
         <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2790,7 +2788,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="21"/>
@@ -2800,7 +2798,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="21"/>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -2826,13 +2824,13 @@
         <v>59</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -2840,13 +2838,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -2854,13 +2852,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2868,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2882,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2896,13 +2894,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2910,13 +2908,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2924,13 +2922,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2938,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
@@ -2952,13 +2950,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -2966,13 +2964,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -2980,13 +2978,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -2994,13 +2992,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
@@ -3008,13 +3006,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
@@ -3022,13 +3020,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -3036,23 +3034,23 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Log_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="9465" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18708" windowHeight="8412" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -491,10 +491,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※2  When isntalling, register the deletion script so that it runs in the crontab at 0:00:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The details of the webap function operation and processing result log file output are as following.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -541,10 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Daily　※2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Deleted</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -592,6 +584,21 @@
   <si>
     <t>/var/log/httpd/exastro-it-automation-*_log</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daily　※3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never ※2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2  When installing, register the deletion script so that it runs in the crontab at 0:00:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※3 When installing. registers a delete script that will be executed 0:00:00 in crontab.</t>
   </si>
 </sst>
 </file>
@@ -2532,22 +2539,24 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="74.8984375" style="22" customWidth="1"/>
     <col min="5" max="5" width="57" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>72</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2569,10 +2578,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="19"/>
@@ -2580,7 +2589,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2589,7 +2598,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -2607,10 +2616,10 @@
         <v>76</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="11">
         <v>1</v>
@@ -2622,16 +2631,16 @@
         <v>60</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="11">
         <v>2</v>
@@ -2640,19 +2649,19 @@
         <v>58</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="11">
         <v>3</v>
@@ -2664,16 +2673,16 @@
         <v>57</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2685,16 +2694,16 @@
         <v>80</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -2706,16 +2715,16 @@
         <v>81</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="11">
         <v>6</v>
@@ -2727,16 +2736,16 @@
         <v>82</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="11">
         <v>7</v>
@@ -2748,16 +2757,16 @@
         <v>83</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="11">
         <v>8</v>
@@ -2769,16 +2778,16 @@
         <v>84</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="21"/>
@@ -2786,9 +2795,9 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="21"/>
@@ -2796,9 +2805,9 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="21"/>
@@ -2806,20 +2815,22 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="C17" s="17"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
@@ -2833,7 +2844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="11">
         <v>1</v>
       </c>
@@ -2847,7 +2858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -2855,13 +2866,13 @@
         <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>3</v>
       </c>
@@ -2869,13 +2880,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -2883,13 +2894,13 @@
         <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>5</v>
       </c>
@@ -2897,13 +2908,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>6</v>
       </c>
@@ -2911,13 +2922,13 @@
         <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>7</v>
       </c>
@@ -2925,13 +2936,13 @@
         <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>8</v>
       </c>
@@ -2939,13 +2950,13 @@
         <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B30" s="11">
         <v>9</v>
       </c>
@@ -2953,13 +2964,13 @@
         <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="11">
         <v>10</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="11">
         <v>11</v>
       </c>
@@ -2981,13 +2992,13 @@
         <v>94</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="11">
         <v>12</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.45">
       <c r="B34" s="11">
         <v>13</v>
       </c>
@@ -3015,7 +3026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="11">
         <v>14</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="11">
         <v>15</v>
       </c>
@@ -3043,12 +3054,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
@@ -3077,14 +3088,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3092,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3220,7 +3231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -3228,7 +3239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3260,16 +3271,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3283,7 +3294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -3311,7 +3322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3325,7 +3336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
